--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -635,6 +635,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/kartor/A 33491-2023.png")</f>
         <v/>
       </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomål/A 33491-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomålsmail/A 33491-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsyn/A 33491-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/artfynd/A 33491-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/artfynd/A 33491-2023.xlsx"; "A 33491-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/kartor/A 33491-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/kartor/A 33491-2023.png; "A 33491-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomål/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomål/A 33491-2023.docx; "A 33491-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomålsmail/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomålsmail/A 33491-2023.docx; "A 33491-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsyn/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsyn/A 33491-2023.docx; "A 33491-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx; "A 33491-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -632,23 +632,23 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/kartor/A 33491-2023.png; "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/kartor/A 33491-2023.png"; "A 33491-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomål/A 33491-2023.docx; "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomål/A 33491-2023.docx"; "A 33491-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomålsmail/A 33491-2023.docx; "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomålsmail/A 33491-2023.docx"; "A 33491-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsyn/A 33491-2023.docx; "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsyn/A 33491-2023.docx"; "A 33491-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx; "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx"; "A 33491-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/artfynd/A 33491-2023.xlsx"; "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/artfynd/A 33491-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/kartor/A 33491-2023.png"; "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/kartor/A 33491-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomål/A 33491-2023.docx"; "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomål/A 33491-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomålsmail/A 33491-2023.docx"; "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomålsmail/A 33491-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsyn/A 33491-2023.docx"; "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsyn/A 33491-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx"; "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/artfynd/A 33491-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/artfynd/A 33491-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/kartor/A 33491-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/kartor/A 33491-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomål/A 33491-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomål/A 33491-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomålsmail/A 33491-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomålsmail/A 33491-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsyn/A 33491-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsyn/A 33491-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -647,9 +647,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsyn/A 33491-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx"; "A 33491-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,29 +628,28 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/artfynd/A 33491-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/artfynd/A 33491-2023.xlsx, "A 33491-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/kartor/A 33491-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/kartor/A 33491-2023.png", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomål/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomål/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomålsmail/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomålsmail/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsyn/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsyn/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx"; "A 33491-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx", "A 33491-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -663,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -777,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -834,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -891,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -948,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1005,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1062,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1119,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1176,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1238,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1300,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1357,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1414,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1471,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1528,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1585,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1642,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1699,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1761,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1823,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1880,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1937,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2232,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2289,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2346,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2408,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2470,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2527,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2646,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2703,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2760,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2817,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2874,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2931,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2993,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3050,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3112,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3169,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3226,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3283,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3345,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3402,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3459,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3521,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3578,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3635,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3692,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3749,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4101,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4163,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4220,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4277,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4339,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4401,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4458,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4515,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4577,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4639,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4701,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4758,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4820,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4882,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4944,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5001,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5063,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5358,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5420,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5482,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5601,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5663,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5720,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/artfynd/A 33491-2023.xlsx, "A 33491-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/artfynd/A 33491-2023.xlsx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="T2">

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/artfynd/A 33491-2023.xlsx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/artfynd/A 33491-2023.xlsx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/kartor/A 33491-2023.png", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/kartor/A 33491-2023.png", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomål/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/klagomål/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/klagomålsmail/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/klagomålsmail/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsyn/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/tillsyn/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HOFORS/tillsynsmail/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/tillsynsmail/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/artfynd/A 33491-2023.xlsx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/artfynd/A 33491-2023 artfynd.xlsx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/kartor/A 33491-2023.png", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/kartor/A 33491-2023 karta.png", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/klagomål/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/klagomål/A 33491-2023 fsc-klagomål.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/klagomålsmail/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/klagomålsmail/A 33491-2023 fsc-klagomål mail.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/tillsyn/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/tillsyn/A 33491-2023 tillsynsbegäran.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/tillsynsmail/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/ti,llsynsmail/A 33491-2023 tillsynsbegäran mail.docx", "A 33491-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -636,11 +636,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/klagomål/A 33491-2023 fsc-klagomål.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/klagomål/A 33491-2023 FSC-klagomål.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/klagomålsmail/A 33491-2023 fsc-klagomål mail.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/klagomålsmail/A 33491-2023 FSC-klagomål mail.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -648,7 +648,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/ti,llsynsmail/A 33491-2023 tillsynsbegäran mail.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2104/tillsynsmail/A 33491-2023 tillsynsbegäran mail.docx", "A 33491-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Översikt GÄVLEBORGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45118</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>45120</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45120</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45123</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45127</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45132</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45133</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45133</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>45133</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45134</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45134</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45134</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45134</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
